--- a/docs/anomaly_detection/result_new.xlsx
+++ b/docs/anomaly_detection/result_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95346063eca47658/documents/computerScience/RIT/2023 spring/NetworkingResearch/inswitch_anomaly/docs/anomaly_detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="803" documentId="13_ncr:1_{1CBB4632-0BF8-440C-8894-48E6D8A48BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D9E52A8-BE25-42B8-BD00-2EB37772E225}"/>
+  <xr:revisionPtr revIDLastSave="811" documentId="13_ncr:1_{1CBB4632-0BF8-440C-8894-48E6D8A48BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90E71D97-E655-4A6D-985F-07BE3D765BC0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,7 +768,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,20 +811,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>99.51</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>99.61</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">

--- a/docs/anomaly_detection/result_new.xlsx
+++ b/docs/anomaly_detection/result_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95346063eca47658/documents/computerScience/RIT/2023 spring/NetworkingResearch/inswitch_anomaly/docs/anomaly_detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="811" documentId="13_ncr:1_{1CBB4632-0BF8-440C-8894-48E6D8A48BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90E71D97-E655-4A6D-985F-07BE3D765BC0}"/>
+  <xr:revisionPtr revIDLastSave="812" documentId="13_ncr:1_{1CBB4632-0BF8-440C-8894-48E6D8A48BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{721DF652-2CD9-4CC8-9CA6-AEF511CCC88C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2832" yWindow="3444" windowWidth="17280" windowHeight="10500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="No P4 &amp; lim4 &amp; no-bala" sheetId="13" r:id="rId1"/>
@@ -768,7 +768,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,7 +832,9 @@
       <c r="D4" s="1">
         <v>94.238919768704704</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>97.201099999999997</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>

--- a/docs/anomaly_detection/result_new.xlsx
+++ b/docs/anomaly_detection/result_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95346063eca47658/documents/computerScience/RIT/2023 spring/NetworkingResearch/inswitch_anomaly/docs/anomaly_detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="812" documentId="13_ncr:1_{1CBB4632-0BF8-440C-8894-48E6D8A48BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{721DF652-2CD9-4CC8-9CA6-AEF511CCC88C}"/>
+  <xr:revisionPtr revIDLastSave="969" documentId="13_ncr:1_{1CBB4632-0BF8-440C-8894-48E6D8A48BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C32CCD9-0DBA-424A-B857-5125CE3E7BA1}"/>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="3444" windowWidth="17280" windowHeight="10500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="No P4 &amp; lim4 &amp; no-bala" sheetId="13" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>BoT-IoT</t>
   </si>
@@ -54,13 +54,28 @@
     <t>Use balaned original data sets to train and but origianl data sets to test, no synthesized good pkts added.</t>
   </si>
   <si>
-    <t>1(py)</t>
-  </si>
-  <si>
-    <t>1(p4)</t>
-  </si>
-  <si>
     <t>(Both py and p4)Sketch limitation of 8, meaning 8 spots for src ip and dst ip, separately.</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1Score</t>
+  </si>
+  <si>
+    <t>BoT-IoT 1</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>py</t>
   </si>
 </sst>
 </file>
@@ -76,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,8 +110,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -237,11 +258,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,12 +326,53 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -765,10 +854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DC7AE6-5869-4AAF-8061-4BCD894E7315}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,116 +865,284 @@
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B3" s="28">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="E3" s="19">
+        <v>94.24</v>
+      </c>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.1414</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.64980000000000004</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="H6" s="26"/>
+      <c r="J6" s="24"/>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28">
+        <v>3</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="E7" s="19">
+        <v>97.201099999999997</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="J7" s="24"/>
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1.83E-2</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.66359999999999997</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="19">
+        <v>3.56E-2</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="H10" s="25"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28">
+        <v>4</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.96819299999999997</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="19">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="E12" s="19">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="H12" s="20"/>
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.68369999999999997</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.96809999999999996</v>
+      </c>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C15" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1">
-        <v>99.51</v>
-      </c>
-      <c r="E3" s="1">
-        <v>99.61</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="2" t="s">
+      <c r="D15" s="19">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="19">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1</v>
+      </c>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0.72</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4.48E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.9859</v>
+      </c>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>94.238919768704704</v>
-      </c>
-      <c r="E4" s="1">
-        <v>97.201099999999997</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A3:A7"/>
+  <mergeCells count="6">
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B7:B10"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:G7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>80</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/anomaly_detection/result_new.xlsx
+++ b/docs/anomaly_detection/result_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95346063eca47658/documents/computerScience/RIT/2023 spring/NetworkingResearch/inswitch_anomaly/docs/anomaly_detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="969" documentId="13_ncr:1_{1CBB4632-0BF8-440C-8894-48E6D8A48BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C32CCD9-0DBA-424A-B857-5125CE3E7BA1}"/>
+  <xr:revisionPtr revIDLastSave="992" documentId="13_ncr:1_{1CBB4632-0BF8-440C-8894-48E6D8A48BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{927677CA-71E7-4E75-BA9B-53B94B714BAF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5460" yWindow="-21720" windowWidth="38640" windowHeight="21840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="No P4 &amp; lim4 &amp; no-bala" sheetId="13" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>BoT-IoT</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>py</t>
+  </si>
+  <si>
+    <t>[0.9367608262145302, 0.9999602960839061, 0.9364881881375878, 0.9671840108523438, None, 4838, 37, 63198, 931861]</t>
   </si>
 </sst>
 </file>
@@ -289,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,6 +300,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -327,62 +346,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -685,19 +662,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="2">
         <v>1</v>
       </c>
@@ -715,7 +692,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
@@ -738,7 +715,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -759,7 +736,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -780,7 +757,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -801,7 +778,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -843,7 +820,7 @@
     <mergeCell ref="A3:A7"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:G7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
@@ -854,10 +831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DC7AE6-5869-4AAF-8061-4BCD894E7315}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,264 +842,255 @@
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="29" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="23" t="s">
+      <c r="E1" s="25"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="23">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="8">
         <v>0.97909999999999997</v>
       </c>
-      <c r="E3" s="19">
-        <v>94.24</v>
-      </c>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="22" t="s">
+      <c r="E3" s="8">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="19">
-        <v>0.1414</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="H4" s="26"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="22" t="s">
+      <c r="D4" s="8">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="19">
-        <v>0.64980000000000004</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="22" t="s">
+      <c r="D5" s="8">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="19">
-        <v>0.23230000000000001</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="H6" s="26"/>
-      <c r="J6" s="24"/>
-      <c r="L6" s="24"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28">
+      <c r="D6" s="8">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="23">
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="8">
         <v>0.99619999999999997</v>
       </c>
-      <c r="E7" s="19">
-        <v>97.201099999999997</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="J7" s="24"/>
-      <c r="L7" s="24"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="22" t="s">
+      <c r="E7" s="8"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="19">
-        <v>1.83E-2</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="22" t="s">
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="19">
-        <v>0.66359999999999997</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="22" t="s">
+      <c r="D9" s="8">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="19">
-        <v>3.56E-2</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="H10" s="25"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28">
+      <c r="D10" s="8">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="23">
         <v>4</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="8">
         <v>0.98680000000000001</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="8">
         <v>0.96819299999999997</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="K11" s="24"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="22" t="s">
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="19">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="K12" s="24"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="22" t="s">
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="19">
-        <v>0.68369999999999997</v>
-      </c>
-      <c r="E13" s="19">
+      <c r="D13" s="8">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="E13" s="8">
         <v>0.96809999999999996</v>
       </c>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="22" t="s">
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="E14" s="19">
+      <c r="D14" s="8">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="E14" s="8">
         <v>0.98380000000000001</v>
       </c>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28">
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="23">
         <v>5</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="8">
         <v>0.99770000000000003</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="8">
         <v>0.97230000000000005</v>
       </c>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="22" t="s">
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="19">
-        <v>2.3099999999999999E-2</v>
-      </c>
-      <c r="E16" s="19">
+      <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="H16" s="20"/>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="22" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="19">
-        <v>0.72</v>
-      </c>
-      <c r="E17" s="19">
+      <c r="D17" s="8">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="E17" s="8">
         <v>0.97230000000000005</v>
       </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="22" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="1">
-        <v>4.48E-2</v>
+        <v>0.99880000000000002</v>
       </c>
       <c r="E18" s="1">
         <v>0.9859</v>
       </c>
-      <c r="H18" s="25"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">

--- a/docs/anomaly_detection/result_new.xlsx
+++ b/docs/anomaly_detection/result_new.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95346063eca47658/documents/computerScience/RIT/2023 spring/NetworkingResearch/inswitch_anomaly/docs/anomaly_detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="992" documentId="13_ncr:1_{1CBB4632-0BF8-440C-8894-48E6D8A48BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{927677CA-71E7-4E75-BA9B-53B94B714BAF}"/>
+  <xr:revisionPtr revIDLastSave="1158" documentId="13_ncr:1_{1CBB4632-0BF8-440C-8894-48E6D8A48BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F75F3A5-57AE-4CA0-89F9-02CA84A1DDD0}"/>
   <bookViews>
-    <workbookView xWindow="-5460" yWindow="-21720" windowWidth="38640" windowHeight="21840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="1320" windowWidth="17280" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="No P4 &amp; lim4 &amp; no-bala" sheetId="13" r:id="rId1"/>
-    <sheet name="No P4 &amp; sep fea re-r &amp; limit4" sheetId="12" r:id="rId2"/>
+    <sheet name="F1" sheetId="17" r:id="rId1"/>
+    <sheet name="Rec" sheetId="16" r:id="rId2"/>
+    <sheet name="Pre" sheetId="15" r:id="rId3"/>
+    <sheet name="Acc" sheetId="14" r:id="rId4"/>
+    <sheet name="Bot-loT" sheetId="12" r:id="rId5"/>
+    <sheet name="No P4 &amp; lim4 &amp; no-bala" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
   <si>
     <t>BoT-IoT</t>
   </si>
@@ -80,13 +84,27 @@
   <si>
     <t>[0.9367608262145302, 0.9999602960839061, 0.9364881881375878, 0.9671840108523438, None, 4838, 37, 63198, 931861]</t>
   </si>
+  <si>
+    <t>[0.95488, 1.0, 0.9548751716433659, 0.976916772481846, None, 107, 0, 45120, 954773]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BoT-IoT </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -292,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,14 +326,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,24 +368,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -381,6 +396,4124 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bot</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>-loT F1 Score</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F1'!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>BoT-IoT 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>p4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'F1'!$A$3:$B$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BoT-IoT </c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F1'!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.98939999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99329999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99880000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42AE-4986-9B79-23063243B485}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F1'!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>BoT-IoT 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>py</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'F1'!$A$3:$B$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BoT-IoT </c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F1'!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.96709999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42AE-4986-9B79-23063243B485}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="217261199"/>
+        <c:axId val="225665215"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="217261199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225665215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="225665215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217261199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bot-loT Recall</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Rec!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>BoT-IoT 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>p4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Rec!$A$3:$B$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BoT-IoT</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Rec!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.98070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99770000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-62A0-4339-B81D-79A3B58B243A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Rec!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>BoT-IoT 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>py</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Rec!$A$3:$B$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BoT-IoT</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Rec!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.93640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96809999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97230000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-62A0-4339-B81D-79A3B58B243A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1681085775"/>
+        <c:axId val="1122633695"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1681085775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122633695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1122633695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.85000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1681085775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="3.0000000000000006E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Bot-lot Precision</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pre!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>BoT-IoT 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>p4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Pre!$A$3:$B$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BoT-IoT</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pre!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.99829999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98BD-4A33-A63A-D50BBE43ED88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pre!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>BoT-IoT 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>py</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Pre!$A$3:$B$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BoT-IoT</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pre!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.99990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-98BD-4A33-A63A-D50BBE43ED88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="218440639"/>
+        <c:axId val="225661247"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="218440639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225661247"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="225661247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.95000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="218440639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bot-loT Accuarcy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Acc!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>BoT-IoT 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>p4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Acc!$A$3:$B$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BoT-IoT</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Acc!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.97909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99770000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F8F-4C6F-9DFC-DCBC9432339B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Acc!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>BoT-IoT 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>py</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Acc!$A$3:$B$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BoT-IoT</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Acc!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.93669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95487999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96819299999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97230000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7F8F-4C6F-9DFC-DCBC9432339B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1108100079"/>
+        <c:axId val="1122635679"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1108100079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122635679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1122635679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.85000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108100079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="3.0000000000000006E-2"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>11137</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>322384</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1611</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8342F159-D8F7-4285-F59A-57D3FF3EAD32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5716</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>174233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>316963</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177457</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1576A7C8-89E9-7D14-F2EE-35D413C942BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>607988</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>172622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>320625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177751</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711C7070-13B0-8E85-95FA-BC73B807A387}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>606083</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>11136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>316815</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>16265</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15729C7-C5B7-5AFA-5DD1-BF02B4315FCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -649,6 +4782,762 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5ECBE3F-4105-4553-A11D-EC7C793E38CB}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.96709999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.97689999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.98380000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.9859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="11">
+        <f t="shared" ref="C7:D7" si="0">AVERAGE(C3:C6)</f>
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.97842499999999999</v>
+      </c>
+      <c r="E7">
+        <f>C7-D7</f>
+        <v>1.6475000000000017E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4F4E74-EBB8-4377-B4FA-119D6184DB33}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.93640000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.95479999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.96809999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.97230000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="11">
+        <f t="shared" ref="C7:D7" si="0">AVERAGE(C3:C6)</f>
+        <v>0.99035000000000006</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.95790000000000008</v>
+      </c>
+      <c r="E7">
+        <f>C7-D7</f>
+        <v>3.2449999999999979E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E3BA49-656A-499E-AEB3-E8FE4C62765C}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="11">
+        <f t="shared" ref="C7:D7" si="0">AVERAGE(C3:C6)</f>
+        <v>0.99957499999999999</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.99997500000000006</v>
+      </c>
+      <c r="E7">
+        <f>C7-D7</f>
+        <v>-4.0000000000006697E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF5D1FA-EEB6-4811-B99E-CE38FB458396}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.93669999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.95487999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.96819299999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.97230000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="11">
+        <f>AVERAGE(C3:C6)</f>
+        <v>0.98995</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" ref="C7:D7" si="0">AVERAGE(D3:D6)</f>
+        <v>0.95801824999999996</v>
+      </c>
+      <c r="E7">
+        <f>C7-D7</f>
+        <v>3.1931750000000036E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DC7AE6-5869-4AAF-8061-4BCD894E7315}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.93640000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.96709999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="16">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.95487999999999995</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.95479999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.97689999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16">
+        <v>4</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.96819299999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.96809999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.98380000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="16">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.97230000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.97230000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.9859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B7:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282D7BB0-3F97-4FAB-AE5E-EED34402392E}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -662,19 +5551,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="2">
         <v>1</v>
       </c>
@@ -692,7 +5581,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
@@ -715,7 +5604,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -736,7 +5625,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -757,7 +5646,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -778,7 +5667,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -827,291 +5716,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DC7AE6-5869-4AAF-8061-4BCD894E7315}">
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="23">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.97909999999999997</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.93669999999999998</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.99829999999999997</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.98070000000000002</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.93640000000000001</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.98939999999999995</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.96709999999999996</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="23">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.99809999999999999</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="23">
-        <v>4</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.98680000000000001</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0.96819299999999997</v>
-      </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0.98680000000000001</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.96809999999999996</v>
-      </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.99329999999999996</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0.98380000000000001</v>
-      </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="23">
-        <v>5</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0.99770000000000003</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.97230000000000005</v>
-      </c>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0.99770000000000003</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0.97230000000000005</v>
-      </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.99880000000000002</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.9859</v>
-      </c>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B7:B10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/docs/anomaly_detection/result_new.xlsx
+++ b/docs/anomaly_detection/result_new.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95346063eca47658/documents/computerScience/RIT/2023 spring/NetworkingResearch/inswitch_anomaly/docs/anomaly_detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1158" documentId="13_ncr:1_{1CBB4632-0BF8-440C-8894-48E6D8A48BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F75F3A5-57AE-4CA0-89F9-02CA84A1DDD0}"/>
+  <xr:revisionPtr revIDLastSave="1291" documentId="13_ncr:1_{1CBB4632-0BF8-440C-8894-48E6D8A48BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F92AF67-6EF4-4B20-AF17-B92F18F34342}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1320" windowWidth="17280" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="F1" sheetId="17" r:id="rId1"/>
-    <sheet name="Rec" sheetId="16" r:id="rId2"/>
-    <sheet name="Pre" sheetId="15" r:id="rId3"/>
-    <sheet name="Acc" sheetId="14" r:id="rId4"/>
-    <sheet name="Bot-loT" sheetId="12" r:id="rId5"/>
-    <sheet name="No P4 &amp; lim4 &amp; no-bala" sheetId="13" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="19" r:id="rId1"/>
+    <sheet name="F1" sheetId="17" r:id="rId2"/>
+    <sheet name="Rec" sheetId="16" r:id="rId3"/>
+    <sheet name="Pre" sheetId="15" r:id="rId4"/>
+    <sheet name="Acc" sheetId="14" r:id="rId5"/>
+    <sheet name="Bot-loT" sheetId="12" r:id="rId6"/>
+    <sheet name="No P4 &amp; lim4 &amp; no-bala" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="19">
   <si>
     <t>BoT-IoT</t>
   </si>
@@ -90,6 +91,15 @@
   <si>
     <t xml:space="preserve">BoT-IoT </t>
   </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
 </sst>
 </file>
 
@@ -112,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +144,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,7 +346,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -340,13 +365,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -369,6 +394,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2180,6 +2221,451 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t>Bot-loT Accuarcy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Acc!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>BoT-IoT 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>p4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Acc!$A$3:$B$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BoT-IoT</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Acc!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.97909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99770000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D44-4647-8D4B-1DBF94D4D9A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Acc!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>BoT-IoT 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>py</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Acc!$A$3:$B$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BoT-IoT</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Acc!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.93669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95487999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96819299999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97230000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D44-4647-8D4B-1DBF94D4D9A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="500"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1108100079"/>
+        <c:axId val="1122635679"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1108100079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122635679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1122635679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.85000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108100079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="3.0000000000000006E-2"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2340,6 +2826,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3850,6 +4376,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4482,11 +5511,11 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>606083</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>11136</xdr:rowOff>
+      <xdr:rowOff>16851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>316815</xdr:colOff>
+      <xdr:colOff>324435</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>16265</xdr:rowOff>
     </xdr:to>
@@ -4508,6 +5537,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>172330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{452F4FD5-E53A-494A-B3EE-8C8A7E2F7B29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4782,11 +5849,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3D1C6B-7614-445B-90A4-A2FFC02EF780}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C2" s="14">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14">
+        <v>3</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14">
+        <v>4</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14">
+        <v>5</v>
+      </c>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:R1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5ECBE3F-4105-4553-A11D-EC7C793E38CB}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4794,15 +6039,15 @@
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="2" t="s">
@@ -4812,8 +6057,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="2">
@@ -4826,8 +6071,8 @@
         <v>0.96709999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -4838,8 +6083,8 @@
         <v>0.97689999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -4850,8 +6095,8 @@
         <v>0.98380000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -4862,154 +6107,35 @@
         <v>0.9859</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="11">
-        <f t="shared" ref="C7:D7" si="0">AVERAGE(C3:C6)</f>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="28">
         <v>0.99490000000000001</v>
       </c>
-      <c r="D7" s="11">
-        <f t="shared" si="0"/>
+      <c r="D7" s="28">
         <v>0.97842499999999999</v>
       </c>
-      <c r="E7">
-        <f>C7-D7</f>
-        <v>1.6475000000000017E-2</v>
-      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="31">
+        <v>1.6475E-2</v>
+      </c>
+      <c r="D8" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4F4E74-EBB8-4377-B4FA-119D6184DB33}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0.98070000000000002</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.93640000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.95479999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.98680000000000001</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.96809999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.99770000000000003</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.97230000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="11">
-        <f t="shared" ref="C7:D7" si="0">AVERAGE(C3:C6)</f>
-        <v>0.99035000000000006</v>
-      </c>
-      <c r="D7" s="11">
-        <f t="shared" si="0"/>
-        <v>0.95790000000000008</v>
-      </c>
-      <c r="E7">
-        <f>C7-D7</f>
-        <v>3.2449999999999979E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5018,11 +6144,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E3BA49-656A-499E-AEB3-E8FE4C62765C}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4F4E74-EBB8-4377-B4FA-119D6184DB33}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5030,15 +6156,15 @@
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="2" t="s">
@@ -5048,88 +6174,85 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="8">
-        <v>0.99829999999999997</v>
+        <v>0.98070000000000002</v>
       </c>
       <c r="D3" s="8">
-        <v>0.99990000000000001</v>
+        <v>0.93640000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="8">
-        <v>1</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="D4" s="8">
-        <v>1</v>
+        <v>0.95479999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
       <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" s="8">
-        <v>1</v>
+        <v>0.98680000000000001</v>
       </c>
       <c r="D5" s="8">
-        <v>1</v>
+        <v>0.96809999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
       <c r="B6" s="2">
         <v>5</v>
       </c>
       <c r="C6" s="8">
-        <v>1</v>
+        <v>0.99770000000000003</v>
       </c>
       <c r="D6" s="8">
-        <v>1</v>
+        <v>0.97230000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="11">
-        <f t="shared" ref="C7:D7" si="0">AVERAGE(C3:C6)</f>
-        <v>0.99957499999999999</v>
-      </c>
-      <c r="D7" s="11">
-        <f t="shared" si="0"/>
-        <v>0.99997500000000006</v>
-      </c>
-      <c r="E7">
-        <f>C7-D7</f>
-        <v>-4.0000000000006697E-4</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="12">
+        <v>0.99034999999999995</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.95789999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="32">
+        <v>3.245E-2</v>
+      </c>
+      <c r="D8" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5138,11 +6261,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF5D1FA-EEB6-4811-B99E-CE38FB458396}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E3BA49-656A-499E-AEB3-E8FE4C62765C}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A7" activeCellId="1" sqref="A8:B8 A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5150,15 +6273,15 @@
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="2" t="s">
@@ -5168,88 +6291,85 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="8">
-        <v>0.97909999999999997</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="D3" s="8">
-        <v>0.93669999999999998</v>
+        <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="8">
-        <v>0.99619999999999997</v>
+        <v>1</v>
       </c>
       <c r="D4" s="8">
-        <v>0.95487999999999995</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
       <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" s="8">
-        <v>0.98680000000000001</v>
+        <v>1</v>
       </c>
       <c r="D5" s="8">
-        <v>0.96819299999999997</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
       <c r="B6" s="2">
         <v>5</v>
       </c>
       <c r="C6" s="8">
-        <v>0.99770000000000003</v>
+        <v>1</v>
       </c>
       <c r="D6" s="8">
-        <v>0.97230000000000005</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="11">
-        <f>AVERAGE(C3:C6)</f>
-        <v>0.98995</v>
-      </c>
-      <c r="D7" s="11">
-        <f t="shared" ref="C7:D7" si="0">AVERAGE(D3:D6)</f>
-        <v>0.95801824999999996</v>
-      </c>
-      <c r="E7">
-        <f>C7-D7</f>
-        <v>3.1931750000000036E-2</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="28">
+        <v>0.99957499999999999</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.99997499999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="29">
+        <v>-4.0000000000006697E-4</v>
+      </c>
+      <c r="D8" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5258,11 +6378,128 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF5D1FA-EEB6-4811-B99E-CE38FB458396}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.93669999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.95487999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.96819299999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.97230000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="12">
+        <v>0.98995</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.95801824999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="18">
+        <v>3.1931750000000002E-2</v>
+      </c>
+      <c r="D8" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DC7AE6-5869-4AAF-8061-4BCD894E7315}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5274,10 +6511,10 @@
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="15"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -5290,10 +6527,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="20">
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -5310,8 +6547,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
@@ -5323,8 +6560,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
@@ -5336,8 +6573,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
@@ -5349,8 +6586,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="16">
+      <c r="A7" s="13"/>
+      <c r="B7" s="20">
         <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -5367,8 +6604,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
@@ -5380,8 +6617,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="10" t="s">
         <v>8</v>
       </c>
@@ -5393,8 +6630,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
@@ -5406,8 +6643,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="16">
+      <c r="A11" s="13"/>
+      <c r="B11" s="20">
         <v>4</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -5421,8 +6658,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="10" t="s">
         <v>7</v>
       </c>
@@ -5434,8 +6671,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="10" t="s">
         <v>8</v>
       </c>
@@ -5447,8 +6684,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
@@ -5460,8 +6697,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="16">
+      <c r="A15" s="13"/>
+      <c r="B15" s="20">
         <v>5</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -5475,8 +6712,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="10" t="s">
         <v>7</v>
       </c>
@@ -5488,8 +6725,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="10" t="s">
         <v>8</v>
       </c>
@@ -5501,8 +6738,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="10" t="s">
         <v>9</v>
       </c>
@@ -5537,7 +6774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282D7BB0-3F97-4FAB-AE5E-EED34402392E}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -5551,19 +6788,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="22" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="2">
         <v>1</v>
       </c>
@@ -5581,7 +6818,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
@@ -5604,7 +6841,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -5625,7 +6862,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -5646,7 +6883,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -5667,7 +6904,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
